--- a/PRODUTOS/Bazar/Bazar - Limpeza domestica.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Limpeza domestica.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saco De Lixo Para Banheiro E Pia Top Lixo 35x38cm Com 40 Unidades</t>
+          <t>Mini Varal Oval Flash Limp Com 8 Prendedores</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd0dd15-fbd9-4598-9dc7-9ed1babfc4c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2f117e8-70b5-40d0-af3b-5f6044dfbd6d.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7897753669386</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saco De Lixo Firme 100lt Com 5 Unidades</t>
+          <t>Vassoura Condor V-52 Varre Forte Com Cabo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 38,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7d09846-e426-4fb3-bf9c-c4a755530094.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/551a6bbb-ef9d-4260-8433-dd446a1c139a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891055003589</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Saco De Lixo Firme 50lt Com 10 Unidades</t>
+          <t>Vassoura Condor Varre Muito Com Cabo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c5b17e-a1de-4e71-90c7-3601e63d2db8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87ad190a-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891055006771</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Saco De Lixo Firme 30lt Com 10 Unidades</t>
+          <t>Vassoura Condor Varre Fácil Com Cabo V-35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53dfaea7-2ab7-4cbd-88d7-e6116d29eaa0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb034062-ed5c-4fa7-ba8d-1de35cdd5be5.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891055003589</t>
         </is>
       </c>
     </row>
@@ -582,6 +607,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f32471b3-57ed-43a2-92a8-82aa72069be6.jpg</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891055003589</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vassoura Condor Limpa Piso Sem Cabo</t>
+          <t>Escova Multiuso Condor 1121 Unidade</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7185e979-4aee-45cf-91e0-ddb3b44f6155.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0df3b42-ddd5-483c-a953-c60193689270.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891055112106</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Saco De Lixo Top Lixo 30lt Com 30 Unidades</t>
+          <t>Pá Para Lixo Plástica Ki-pá Com Cabo Longo Unidade</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 26,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7142da7-f977-43a8-8650-e45dfa46df9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/830eb34c-23be-4686-9e50-e57ee57907b9.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896829940329</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Saco De Lixo Top Lixo 50lt</t>
+          <t>Rodo Ki-plástico 40cm Ki-lar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef53b648-caf5-4631-8ab2-cdad9f93912c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dfd7afc-b72e-4228-8ff2-0c9c42763291.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896829930214</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Saco De Lixo Top Lixo 100lt Com 15 Unidades</t>
+          <t>Rodo Ki-plástico 30cm Ki-lar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 22,98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f746857-070c-4496-898d-3a0f92a4f6ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a57b4e-dd0e-4102-b4c9-ec14f80a906d.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896829930207</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Saco De Lixo Super Forte 100lt Com 13 Unidades</t>
+          <t>Luvas Multiuso Amarela Grande Limppano</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/227b746b-cd3c-4af5-b024-5bba89a38f9d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c402da62-53f1-4954-8aaf-63a572887bc2.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896021621286</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saco De Lixo Firme 15lt Com 20 Unidades</t>
+          <t>Saco De Lixo Unionpack 100lt Com 5 Unidades</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8899174c-14d3-4ac8-8148-2e0697f9da9b.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898908844078</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Saco De Lixo Top Lixo 15lt Com 60 Unidades</t>
+          <t>Prendedor De Roupa Ki-lar Big Com 12 Unidades</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a2beb64-168f-46f3-bf1b-aef626e9d1ec.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896829940480</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Saco De Lixo Superforte 50lt Com 20 Unidades</t>
+          <t>Saco Para Lixo Lavanda 50l Pack Lixo 30 Unidades</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 24,98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35a5d6df-bf44-43c3-9fc6-82a928a8ecea.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7899739511085</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Luvas Multiuso Amarela Média Limppano</t>
+          <t>Saco Para Lixo Lavanda 100l Pack Lixo 15 Unidades</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 24,98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f59fc297-9c38-4ebb-94cf-eb485be107d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4505c291-3f2d-438f-bb42-f1e9b6ea3440.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7899739511023</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Escova Para Lavar Condor Unidade</t>
+          <t>Lustra Moveis Uau 200ml Rosas E Sedução</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8599f5de-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7593444b-5155-4d4e-b6f7-856f9b148b2c.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891242470231</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Saco De Lixo Superforte 50lt Com 10 Unidades</t>
+          <t>Lustra Moveis Uau 200ml Lavanda</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 24,98</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1ab7a89-790d-4fe1-8aa4-0e95590229c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eb31c9a-ae92-4f48-84b4-c0ebccee94c0.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896098909980</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Saco De Lixo Unionpack 50lt Com 10 Unidades</t>
+          <t>Saco De Lixo Para Banheiro E Pia Top Lixo 35x38cm Com 40 Unidades</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd0dd15-fbd9-4598-9dc7-9ed1babfc4c2.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898415556235</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Escova Sanitária Ki-lar Com Copo Plástico Unidade</t>
+          <t>Escova Sanitária Branca Condor 6120 Unidade</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2469f3f2-eddc-4858-b1de-f1fa24b3601e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5883c32-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891055610404</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vassoura Bellafit Com Cabo</t>
+          <t>Escova Lava Tênis Condor 1710 Unidade</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 22,98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c6f18bc-302b-4a23-8336-fdb7a0fd927d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98207198-2dc2-4b8e-b9b6-2317887d900d.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891055606308</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Saco De Lixo Unionpack 100lt Com 5 Unidades</t>
+          <t>Escova Lava Legumes Condor 1730 Unidade</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05ba70f8-80f8-4487-80b5-80440711683b.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891055590300</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Luvas Multiuso Amarela Pequena Limppano</t>
+          <t>Escova Condor Lava Canto 1720 Unidade</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c16285b9-caca-42fc-83de-8ee1e0ea030b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a56fd345-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891055606407</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Luvas Multiuso Amarela Grande Limppano</t>
+          <t>Vassoura Condor Limpa Piso Sem Cabo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c402da62-53f1-4954-8aaf-63a572887bc2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7185e979-4aee-45cf-91e0-ddb3b44f6155.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891055003589</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Saco Para Lixo Pia E Banheiro Lavanda Pack Lixo 40 Unidades</t>
+          <t>Saco De Lixo Firme 15lt Com 20 Unidades</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce046b23-db6f-43f7-8aed-3eea77a5d552.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8899174c-14d3-4ac8-8148-2e0697f9da9b.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896642400024</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rodo Eva Com Cabo 30cm 1124 Condor Unidade</t>
+          <t>Vassoura Piaçava Ki-lar Nº3 Com Cabo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 29,98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c75c1cc-4805-40e9-a3d9-676858b6da3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dab6dfd6-a50b-495c-8506-979ebbe1ff67.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896829910094</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rodinho Para Pia Plasutil 16cm 2186 Unidade</t>
+          <t>Saco De Lixo Top Lixo 100lt Com 15 Unidades</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52790b83-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f746857-070c-4496-898d-3a0f92a4f6ef.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7898415556235</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vassoura Condor Varre Fácil Com Cabo V-35</t>
+          <t>Saco De Lixo Top Lixo 15lt Com 60 Unidades</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb034062-ed5c-4fa7-ba8d-1de35cdd5be5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a2beb64-168f-46f3-bf1b-aef626e9d1ec.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898415556235</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rodo Ki-plástico 30cm Ki-lar</t>
+          <t>Saco De Lixo Top Lixo 50lt</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 22,98</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a57b4e-dd0e-4102-b4c9-ec14f80a906d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef53b648-caf5-4631-8ab2-cdad9f93912c.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898415556259</t>
         </is>
       </c>
     </row>
@@ -1203,6 +1343,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0289a313-5bb9-4779-958c-f46b5598cc25.jpg</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896942230598</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rolo Adesivo Tira Pelos 3m Scotch Brite</t>
+          <t>Saco De Lixo Firme 100lt Com 5 Unidades</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 29,98</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8691daa5-0a7b-4ec3-b1fe-c278cecb814d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7d09846-e426-4fb3-bf9c-c4a755530094.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896642400024</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lustra Moveis Uau 200ml Rosas E Sedução</t>
+          <t>Saco De Lixo Firme 50lt Com 10 Unidades</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7593444b-5155-4d4e-b6f7-856f9b148b2c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2c5b17e-a1de-4e71-90c7-3601e63d2db8.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896642400024</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vassoura Piaçava Ki-lar Nº3 Com Cabo</t>
+          <t>Saco De Lixo Firme 30lt Com 10 Unidades</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 29,98</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dab6dfd6-a50b-495c-8506-979ebbe1ff67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53dfaea7-2ab7-4cbd-88d7-e6116d29eaa0.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896642400024</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pá De Lixo Plástica Ki-lar Unidade</t>
+          <t>Vassoura Piaçava Ki-lar Nº4 Com Cabo</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce23a0ca-0f64-4b70-bf49-4649ef22cfbc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/315ff95f-1772-4b8a-802e-f01d78897525.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896829910094</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Escova Sanitária Branca Condor 6120 Unidade</t>
+          <t>Rodo De Madeira 40cm Duplo Ki-lar</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 17,89</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5883c32-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fc61623-4ddd-46b9-a532-138619d2571c.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896829930047</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Prendedor De Roupa Ki-lar Big Com 12 Unidades</t>
+          <t>Luvas Multiuso Amarela Média Limppano</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f59fc297-9c38-4ebb-94cf-eb485be107d0.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896021621286</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rodo Ki-plástico 40cm Ki-lar</t>
+          <t>Luvas Multiuso Amarela Pequena Limppano</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dfd7afc-b72e-4228-8ff2-0c9c42763291.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c16285b9-caca-42fc-83de-8ee1e0ea030b.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896021621286</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Saco De Lixo Super Forte 100lt Com 5 Unidades</t>
+          <t>Rodinho Para Pia Plasutil 16cm 2186 Unidade</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 24,98</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7aa61fb-dbbe-44e9-8d22-e866c09baccc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52790b83-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896042029771</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rodo Eva Com Cabo 40cm 1125 Condor Unidade</t>
+          <t>Rolo Adesivo Tira Pelos 3m Scotch Brite</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 25,98</t>
+          <t>R$ 29,98</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b93dd80-9a6c-41e8-b63d-dfb9988f6af7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8691daa5-0a7b-4ec3-b1fe-c278cecb814d.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891040102518</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Escova Condor Lava Canto 1720 Unidade</t>
+          <t>Vassoura Ki-lar Nylon Com Cabo Nº3.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a56fd345-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8909ce27-58b7-4b8e-bed2-f72d02b006af.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896829910100</t>
         </is>
       </c>
     </row>
@@ -1500,6 +1695,11 @@
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898908844078</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Vassoura Ki-bella-ki-lar Com Cabo</t>
+          <t>Vassoura Ki-lar-ki Leve Nylon Com Cabo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 20,98</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c8f2265-5f13-4f5f-9908-d255a5abe6a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb406ee5-62b1-4148-b1a9-5dd42c6ef80f.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896829910100</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mini Varal Oval Flash Limp Com 8 Prendedores</t>
+          <t>Espalha Cera Ki-lar Unidade</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2f117e8-70b5-40d0-af3b-5f6044dfbd6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ed1a721-3f11-4b08-a123-494f7adfdcf8.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896829940152</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pá Para Lixo Plástica Ki-pá Com Cabo Longo Unidade</t>
+          <t>Escova Sanitária Ki-lar Com Copo Plástico Unidade</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 26,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/830eb34c-23be-4686-9e50-e57ee57907b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2469f3f2-eddc-4858-b1de-f1fa24b3601e.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896829940091</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vassoura Cerlon Ki-lar 30cm</t>
+          <t>Pá De Lixo Plástica Ki-lar Unidade</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d45462d-f125-4478-abab-5b67ccb62753.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce23a0ca-0f64-4b70-bf49-4649ef22cfbc.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896829940220</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Espalha Cera Ki-lar Unidade</t>
+          <t>Saco De Lixo Top Lixo 30lt Com 30 Unidades</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ed1a721-3f11-4b08-a123-494f7adfdcf8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7142da7-f977-43a8-8650-e45dfa46df9f.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898415556235</t>
         </is>
       </c>
     </row>
@@ -1649,584 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mop Flat Microfibra Flash Limp 7657 Unidade</t>
+          <t>Pá De Lixo Plástica Com Cabo Longo Ki-lar Unidade</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 39,98</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/006627f3-f549-4922-949b-15cb3477e383.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Escova Lava Legumes Condor 1730 Unidade</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05ba70f8-80f8-4487-80b5-80440711683b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Rodo De Madeira 40cm Duplo Ki-lar</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 17,89</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fc61623-4ddd-46b9-a532-138619d2571c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Vassoura Condor Varre Muito Com Cabo</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87ad190a-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Vassoura Ki-lar Nylon Com Cabo Nº3.1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8909ce27-58b7-4b8e-bed2-f72d02b006af.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Pá De Lixo Plástica Com Cabo Longo Ki-lar Unidade</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b9ce87c-f6cd-49ea-a862-49e4b2b97468.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Mop Flash Limp Giratório Fit Mop Unidade</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 89,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eb9160d-2e19-40a3-9515-fc4b1d46e7d1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Escova Para Louças Com Cabo Condor Unidade</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 19,98</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a53dae12-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Lustra Moveis Uau 200ml Lavanda</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1eb31c9a-ae92-4f48-84b4-c0ebccee94c0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Refil Para Mop Spray Verde Flash Limp</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9cfb6fa1-dba5-43e6-afb7-eaf96731dfef.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Vassoura Ki-lar-ki Leve Nylon Com Cabo</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb406ee5-62b1-4148-b1a9-5dd42c6ef80f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Vassoura Condor V-52 Varre Forte Com Cabo</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 38,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/551a6bbb-ef9d-4260-8433-dd446a1c139a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Escova Lava Tênis Condor 1710 Unidade</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 22,98</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98207198-2dc2-4b8e-b9b6-2317887d900d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Saco Para Lixo Tipo C Com Alça 50l Extrusa-pack Easybag 10 Unidades</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 8,98</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Saco Para Lixo Lavanda 50l Pack Lixo 30 Unidades</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 24,98</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Saco Para Lixo Lavanda 100l Pack Lixo 15 Unidades</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 24,98</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4505c291-3f2d-438f-bb42-f1e9b6ea3440.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Mop Spray Fit Flash Limp Unidade</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 89,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f9da048-a5b2-4325-979d-5458ccbbabff.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Vassoura Piaçava Ki-lar Nº4 Com Cabo</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 42,99</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/315ff95f-1772-4b8a-802e-f01d78897525.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Saco Para Lixo Tipo B Com Alça 30l Extrusa-pack Easybag 10 Unidades</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 6,98</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Escova Multiuso Condor 1121 Unidade</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0df3b42-ddd5-483c-a953-c60193689270.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Mop Esfregao Condor Pva 1620</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 77,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ac46ae5-c02f-42d4-b346-0beb69b04543.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Limpeza domestica</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Saco Lixo Pack Pet Extrusapack 50 Un</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896829940220</t>
         </is>
       </c>
     </row>
